--- a/Week5/Week5_results.xlsx
+++ b/Week5/Week5_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="40">
   <si>
     <t>acc</t>
   </si>
@@ -110,10 +110,40 @@
     <t>0.771</t>
   </si>
   <si>
-    <t>sigmoid, g=0.8, c=1 +bg</t>
-  </si>
-  <si>
     <t>0.83</t>
+  </si>
+  <si>
+    <t>sigmoid, g=0.8, c=1 +bigrams</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>OptSVC=  previous w/0,75 train</t>
+  </si>
+  <si>
+    <t>OptSVC + Porterstemmer</t>
+  </si>
+  <si>
+    <t>OptSVC + Snowball(stopF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OptSVC + lancaster</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OptSVC + lemmatizer</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>Table 1: SVM Results</t>
   </si>
 </sst>
 </file>
@@ -122,11 +152,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="169" formatCode="0.000_ ;[Red]\-0.000\ "/>
-    <numFmt numFmtId="175" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +171,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,20 +250,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
+    <cellStyle name="Accent3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,421 +571,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="1" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>6</v>
+      <c r="D36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
